--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Digole</t>
   </si>
   <si>
-    <t xml:space="preserve">practicekunal@gmail.com</t>
+    <t xml:space="preserve">finalopencart@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">+91 9767297788</t>
@@ -301,7 +301,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="practicekunal@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="finalopencart@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
